--- a/biology/Zoologie/Jeholopterus/Jeholopterus.xlsx
+++ b/biology/Zoologie/Jeholopterus/Jeholopterus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeholopterus ninchengensis
-Jeholopterus est un genre éteint de ptérosaures du Jurassique moyen à supérieur retrouvé dans les bancs de Daohugou de la formation de Tiaojishan de Mongolie-Intérieure, en Chine[1].
-L'espèce type, Jeholopterus ninchengensis, a été nommée par Wang Xiaolin, Zhou Zhonghe et Xu Xing en 2002[1]. Elle est basée sur l'holotype IPVV V12705[1].
+Jeholopterus est un genre éteint de ptérosaures du Jurassique moyen à supérieur retrouvé dans les bancs de Daohugou de la formation de Tiaojishan de Mongolie-Intérieure, en Chine.
+L'espèce type, Jeholopterus ninchengensis, a été nommée par Wang Xiaolin, Zhou Zhonghe et Xu Xing en 2002. Elle est basée sur l'holotype IPVV V12705.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Datation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom de genre inclut le terme « Jehol » qui rappelle qu'à l'époque de sa description les bancs de Daohugou étaient souvent rattachés à la formation d'Yixian et donc au biote de Jehol daté du Crétacé inférieur entre environ 133 et 120 Ma (millions d'années), de l'Hauterivien supérieur à l'Aptien inférieur.
-Depuis 2012, les bancs de Daohugou sont inclus dans la formation de Tiaojishan, et daté de la limite entre le Jurassique moyen et supérieur, il y a environ 164 Ma (millions d'années)[2],[3].
+Depuis 2012, les bancs de Daohugou sont inclus dans la formation de Tiaojishan, et daté de la limite entre le Jurassique moyen et supérieur, il y a environ 164 Ma (millions d'années),.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son envergure, de l'ordre de 90 centimètres, est environ deux fois supérieure à celle de la plupart des autres anurognathidés[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son envergure, de l'ordre de 90 centimètres, est environ deux fois supérieure à celle de la plupart des autres anurognathidés.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jeholopterus a d'abord été classé chez les Anurognathidae. En 2003, une analyse cladistique réalisée par Kellner permet de lier le genre avec les Dendrorhynchoides et Batrachognathus (en) dans le clade des Asiaticognathidae[4]. Une analyse réalisée par Lü Junchang en 2006 a établi que le genre est groupe frère avec Batrachognathus.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeholopterus a d'abord été classé chez les Anurognathidae. En 2003, une analyse cladistique réalisée par Kellner permet de lier le genre avec les Dendrorhynchoides et Batrachognathus (en) dans le clade des Asiaticognathidae. Une analyse réalisée par Lü Junchang en 2006 a établi que le genre est groupe frère avec Batrachognathus.
 </t>
         </is>
       </c>
